--- a/data/xlsx/HubFortuneTelling.xlsx
+++ b/data/xlsx/HubFortuneTelling.xlsx
@@ -759,7 +759,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>葉</t>
+          <t>Leaf</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
